--- a/BSLoadDegree/BSLoadDegree.xlsx
+++ b/BSLoadDegree/BSLoadDegree.xlsx
@@ -65,30 +65,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.79261904761904789</v>
+        <v>0.79206349206349236</v>
       </c>
       <c r="B1" s="0">
-        <v>0.79023809523809552</v>
+        <v>0.79000000000000037</v>
       </c>
       <c r="C1" s="0">
-        <v>0.78777777777777813</v>
+        <v>0.78642857142857181</v>
       </c>
       <c r="D1" s="0">
-        <v>0.78380952380952418</v>
+        <v>0.7830952380952384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.79063492063492091</v>
+        <v>0.79000000000000037</v>
       </c>
       <c r="B2" s="0">
-        <v>0.78619047619047644</v>
+        <v>0.78650793650793682</v>
       </c>
       <c r="C2" s="0">
-        <v>0.78087301587301605</v>
+        <v>0.78158730158730183</v>
       </c>
       <c r="D2" s="0">
-        <v>0.77714285714285736</v>
+        <v>0.77698412698412711</v>
       </c>
     </row>
     <row r="3">
@@ -96,27 +96,27 @@
         <v>0.79063492063492091</v>
       </c>
       <c r="B3" s="0">
-        <v>0.78571428571428592</v>
+        <v>0.78738095238095251</v>
       </c>
       <c r="C3" s="0">
-        <v>0.78023809523809551</v>
+        <v>0.78087301587301605</v>
       </c>
       <c r="D3" s="0">
-        <v>0.77547619047619043</v>
+        <v>0.77603174603174618</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0</v>
+        <v>0.79047619047619067</v>
       </c>
       <c r="B4" s="0">
-        <v>0</v>
+        <v>0.78595238095238107</v>
       </c>
       <c r="C4" s="0">
-        <v>0</v>
+        <v>0.77976190476190488</v>
       </c>
       <c r="D4" s="0">
-        <v>0</v>
+        <v>0.77428571428571435</v>
       </c>
     </row>
   </sheetData>

--- a/BSLoadDegree/BSLoadDegree.xlsx
+++ b/BSLoadDegree/BSLoadDegree.xlsx
@@ -57,66 +57,66 @@
   <dimension ref="A1:D4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="12.7109375" customWidth="true"/>
-    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="11.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.79206349206349236</v>
+        <v>30.516168893437982</v>
       </c>
       <c r="B1" s="0">
-        <v>0.79000000000000037</v>
+        <v>61.913073944482363</v>
       </c>
       <c r="C1" s="0">
-        <v>0.78642857142857181</v>
+        <v>91.754940082400694</v>
       </c>
       <c r="D1" s="0">
-        <v>0.7830952380952384</v>
+        <v>121.04701171583935</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.79000000000000037</v>
+        <v>14.584194658944467</v>
       </c>
       <c r="B2" s="0">
-        <v>0.78650793650793682</v>
+        <v>30.480361142218456</v>
       </c>
       <c r="C2" s="0">
-        <v>0.78158730158730183</v>
+        <v>41.37812192264132</v>
       </c>
       <c r="D2" s="0">
-        <v>0.77698412698412711</v>
+        <v>54.447929254944853</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.79063492063492091</v>
+        <v>6.7355471236946602</v>
       </c>
       <c r="B3" s="0">
-        <v>0.78738095238095251</v>
+        <v>18.954325309198573</v>
       </c>
       <c r="C3" s="0">
-        <v>0.78087301587301605</v>
+        <v>27.465766366576119</v>
       </c>
       <c r="D3" s="0">
-        <v>0.77603174603174618</v>
+        <v>65535</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.79047619047619067</v>
+        <v>13.915954367805027</v>
       </c>
       <c r="B4" s="0">
-        <v>0.78595238095238107</v>
+        <v>30.717970866268352</v>
       </c>
       <c r="C4" s="0">
-        <v>0.77976190476190488</v>
+        <v>65535</v>
       </c>
       <c r="D4" s="0">
-        <v>0.77428571428571435</v>
+        <v>60.34227342405093</v>
       </c>
     </row>
   </sheetData>
